--- a/Outputs/PtX_demand_DE.xlsx
+++ b/Outputs/PtX_demand_DE.xlsx
@@ -493,53 +493,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2030</v>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>0.01765215960921248</v>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.0055711574186896</v>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>9.292803084922136e-09</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.003325226126171</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2030</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.01765215960921248</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>0.02955119092735707</v>
+      </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0.0055711574186896</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>9.292803084922136e-09</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.003325226126171</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -547,7 +549,7 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.02955119092735707</v>
+        <v>0.04433969697185758</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -560,16 +562,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2030</v>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>0.04433969697185758</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -581,7 +581,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -589,18 +589,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0.009016130437362074</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0012313579486277</v>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>0.0006895102990429999</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -608,24 +614,18 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0.009016130437362074</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0012313579486277</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>0.0006895102990429999</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -634,17 +634,29 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.09538061722872582</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.001304149103975</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.001204474028146</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1224462947912662</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0022467487100401</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.018079471992316</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -652,30 +664,20 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>0.09538061722872582</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.001304149103975</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.001204474028146</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.1224462947912662</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.0022467487100401</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.018079471992316</v>
-      </c>
+      <c r="E9" t="n">
+        <v>0.05484772932331852</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -684,7 +686,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.05484772932331852</v>
+        <v>0.006272957117690974</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -696,74 +698,92 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>0.01765215960921248</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.07389088789921465</v>
+      </c>
       <c r="E11" t="n">
-        <v>0.006272957117690974</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>0.07013681687837157</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1021831325960431</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.001304149103975</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.001204483320949085</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1264610312164802</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0022467487100401</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.018079471992316</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>2040</v>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>0.06834461583250408</v>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.0270646700994055</v>
+      </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>7.779102579402707e-07</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0049797474758593</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>2040</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.06834461583250408</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>0.0305041696259109</v>
+      </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>0.0270646700994055</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>7.779102579402707e-07</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.0049797474758593</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -771,7 +791,7 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>0.0305041696259109</v>
+        <v>0.04576958136529481</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -784,28 +804,30 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2040</v>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>0.04576958136529481</v>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>9.415866651455816e-09</v>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>1.606966242255794e-09</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -813,14 +835,16 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0.03571390800381128</v>
+      </c>
       <c r="F16" t="n">
-        <v>9.415866651455816e-09</v>
+        <v>0.0016398987238418</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>1.606966242255794e-09</v>
+        <v>0.0011074701344166</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -828,7 +852,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -836,24 +860,18 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0.03571390800381128</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0016398987238418</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>0.0011074701344166</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -862,17 +880,29 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.038145879212908</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0021259781912552</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0018701046714135</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0818738179330495</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0027294350390612</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0212124707818128</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -880,30 +910,20 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>0.038145879212908</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.0021259781912552</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.0018701046714135</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.0818738179330495</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.0027294350390612</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.0212124707818128</v>
-      </c>
+      <c r="E19" t="n">
+        <v>0.05855339976698785</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -912,7 +932,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.05855339976698785</v>
+        <v>0.0243654678870031</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -924,74 +944,92 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>0.06834461583250408</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.07627375099120572</v>
+      </c>
       <c r="E21" t="n">
-        <v>0.0243654678870031</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>0.1186327756578023</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.06685045745202195</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0021259781912552</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.00187088258167144</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.08796103715029165</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0027294350390612</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0212124707818128</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>2050</v>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>0.1663792668616166</v>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.0373999340059031</v>
+      </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>1.318495227786505e-06</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0079718677372713</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>2050</v>
       </c>
-      <c r="C23" t="n">
-        <v>0.1663792668616166</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>0.03125884591133844</v>
+      </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>0.0373999340059031</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>1.318495227786505e-06</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.0079718677372713</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -999,7 +1037,7 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>0.03125884591133844</v>
+        <v>0.04690192550296291</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -1012,28 +1050,30 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2050</v>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
-        <v>0.04690192550296291</v>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>4.563082313867803e-08</v>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>4.562367519054078e-08</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1041,14 +1081,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0.08858543133142696</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.563082313867803e-08</v>
+        <v>0.0002239386154044053</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>4.562367519054078e-08</v>
+        <v>0.0003123674773705</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1056,7 +1098,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1064,24 +1106,30 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>0.08858543133142696</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>0.0002239386154044053</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+        <v>2.602191590338917e-10</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7.828828595738394e-11</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.90187055889106e-11</v>
+      </c>
       <c r="I27" t="n">
-        <v>0.0003123674773705</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1.325834633892498e-09</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.86934248556683e-11</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.998432281381614e-09</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1091,28 +1139,28 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>2.602191590338917e-10</v>
+        <v>0.0031944332293496</v>
       </c>
       <c r="G28" t="n">
-        <v>7.828828595738394e-11</v>
+        <v>0.0037987497667498</v>
       </c>
       <c r="H28" t="n">
-        <v>3.90187055889106e-11</v>
+        <v>0.002954685477235</v>
       </c>
       <c r="I28" t="n">
-        <v>1.325834633892498e-09</v>
+        <v>0.0211885570301623</v>
       </c>
       <c r="J28" t="n">
-        <v>1.86934248556683e-11</v>
+        <v>0.0035104856801954</v>
       </c>
       <c r="K28" t="n">
-        <v>1.998432281381614e-09</v>
+        <v>0.0298563177951271</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1120,30 +1168,20 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>0.0031944332293496</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.0037987497667498</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.002954685477235</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.0211885570301623</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.0035104856801954</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.0298563177951271</v>
-      </c>
+      <c r="E29" t="n">
+        <v>0.06149410901606588</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1152,7 +1190,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.06149410901606588</v>
+        <v>0.05948163044517085</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1164,23 +1202,39 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="C31" t="n">
+        <v>0.1663792668616166</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.07816077141430135</v>
+      </c>
       <c r="E31" t="n">
-        <v>0.05948163044517085</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>0.2095611707926637</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.04081835174169941</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.003798749845038086</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.002956004011481492</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.02947283919431392</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.003510485698888825</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.02985631979355938</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Outputs/PtX_demand_DE.xlsx
+++ b/Outputs/PtX_demand_DE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,7 +606,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -615,17 +615,21 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.0214363122649285</v>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>0.002614249207034</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -634,29 +638,17 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>0.09538061722872582</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.001304149103975</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.001204474028146</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.1224462947912662</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0022467487100401</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.018079471992316</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -664,20 +656,30 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0.05484772932331852</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.09538061722872582</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.001304149103975</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0185388170453178</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1224462947912662</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0022467487100401</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.018079471992316</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -685,174 +687,178 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>0.006272957117690974</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.9958254338286147</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.009184739703939499</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.1682123658973846</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.7802677959975889</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0135995746686256</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.1660732671463351</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.01765215960921248</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.07389088789921465</v>
-      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.07013681687837157</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.1021831325960431</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.001304149103975</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.001204483320949085</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.1264610312164802</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.0022467487100401</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.018079471992316</v>
-      </c>
+        <v>0.05484772932331852</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06834461583250408</v>
-      </c>
+        <v>2030</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>0.0270646700994055</v>
-      </c>
+      <c r="E12" t="n">
+        <v>0.006272957117690974</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>7.779102579402707e-07</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.0049797474758593</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2040</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>2030</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01765215960921248</v>
+      </c>
       <c r="D13" t="n">
-        <v>0.0305041696259109</v>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>0.07389088789921465</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.07013681687837157</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.119444878689586</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0104888888079145</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1867511922355055</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.9093430764211031</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0158463233786657</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.1841527391386511</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2040</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>0.04576958136529481</v>
-      </c>
+      <c r="C14" t="n">
+        <v>0.06834461583250408</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.0270646700994055</v>
+      </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>7.779102579402707e-07</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0049797474758593</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2040</v>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0.0305041696259109</v>
+      </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>9.415866651455816e-09</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>1.606966242255794e-09</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2040</v>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0.03571390800381128</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0016398987238418</v>
-      </c>
+      <c r="D16" t="n">
+        <v>0.04576958136529481</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>0.0011074701344166</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -861,17 +867,21 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>9.415866651455816e-09</v>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>1.606966242255794e-09</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -879,30 +889,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0.03571390800381128</v>
+      </c>
       <c r="F18" t="n">
-        <v>0.038145879212908</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.0021259781912552</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.0018701046714135</v>
-      </c>
+        <v>0.0016398987238418</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.0818738179330495</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.0027294350390612</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.0212124707818128</v>
-      </c>
+        <v>0.0011074701344166</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -910,20 +914,22 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>0.05855339976698785</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.0112147808435617</v>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.0027930046060545</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -931,9 +937,7 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0.0243654678870031</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -944,32 +948,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
-      <c r="C21" t="n">
-        <v>0.06834461583250408</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.07627375099120572</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.1186327756578023</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.06685045745202195</v>
+        <v>0.038145879212908</v>
       </c>
       <c r="G21" t="n">
         <v>0.0021259781912552</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00187088258167144</v>
+        <v>0.0229721900621251</v>
       </c>
       <c r="I21" t="n">
-        <v>0.08796103715029165</v>
+        <v>0.0818738179330495</v>
       </c>
       <c r="J21" t="n">
         <v>0.0027294350390612</v>
@@ -981,44 +979,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2050</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1663792668616166</v>
-      </c>
+        <v>2040</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.0373999340059031</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>0.2594807462495054</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.009874105827106201</v>
+      </c>
       <c r="H22" t="n">
-        <v>1.318495227786505e-06</v>
+        <v>0.1587721892494528</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0079718677372713</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>0.3533453819006636</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0120684058317329</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.158500639986639</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="n">
-        <v>0.03125884591133844</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0.05855339976698785</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1029,17 +1031,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="n">
-        <v>0.04690192550296291</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0.0243654678870031</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1050,47 +1052,63 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2050</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+        <v>2040</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.06834461583250408</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.07627375099120572</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.1186327756578023</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.563082313867803e-08</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+        <v>0.3375459845450891</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0120000840183614</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1817451572218358</v>
+      </c>
       <c r="I25" t="n">
-        <v>4.562367519054078e-08</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>0.4440994236570097</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0147978408707941</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.1797131107684518</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>2050</v>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>0.1663792668616166</v>
+      </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>0.08858543133142696</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>0.0002239386154044053</v>
+        <v>0.0373999340059031</v>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>1.318495227786505e-06</v>
+      </c>
       <c r="I26" t="n">
-        <v>0.0003123674773705</v>
+        <v>0.0079718677372713</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1098,69 +1116,49 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>2050</v>
       </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>0.03125884591133844</v>
+      </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>2.602191590338917e-10</v>
-      </c>
-      <c r="G27" t="n">
-        <v>7.828828595738394e-11</v>
-      </c>
-      <c r="H27" t="n">
-        <v>3.90187055889106e-11</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.325834633892498e-09</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.86934248556683e-11</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1.998432281381614e-09</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2050</v>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>0.04690192550296291</v>
+      </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>0.0031944332293496</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.0037987497667498</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.002954685477235</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.0211885570301623</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.0035104856801954</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.0298563177951271</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1168,20 +1166,22 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>0.06149410901606588</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>4.563082313867803e-08</v>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>4.562367519054078e-08</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1190,50 +1190,212 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.05948163044517085</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
+        <v>0.08858543133142696</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0002239386154044053</v>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>0.0003123674773705</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>0.000471489555175</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>0.0010125711050962</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Synthetic Liquids</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>2.602191590338917e-10</v>
+      </c>
+      <c r="G32" t="n">
+        <v>7.828828595738394e-11</v>
+      </c>
+      <c r="H32" t="n">
+        <v>8.520247161008943e-10</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.325834633892498e-09</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.86934248556683e-11</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.998432281381614e-09</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Biogenic Liquids</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>0.0031944332293496</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0037987497667498</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0305938708366804</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0211885570301623</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0035104856801954</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0298563177951271</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fossil Liquids</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0.0159963338059098</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0089060252841762</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.1422222140205519</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0624614820658483</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.0103878911517463</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.1448371735508255</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Biomass [Solid]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>0.06149410901606588</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Renewable Energy Carrier</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0.05948163044517085</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Overall Demand</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C37" t="n">
         <v>0.1663792668616166</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D37" t="n">
         <v>0.07816077141430135</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E37" t="n">
         <v>0.2095611707926637</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.04081835174169941</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.003798749845038086</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.002956004011481492</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.02947283919431392</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.003510485698888825</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.02985631979355938</v>
+      <c r="F37" t="n">
+        <v>0.05728617510278421</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.01270477512921428</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.1728174042044848</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.09294689236525842</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.01389837685063513</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.1746934933443849</v>
       </c>
     </row>
   </sheetData>
